--- a/report/data.xlsx
+++ b/report/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljt12138\Desktop\oslab\sim_ran\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF99246-EDBF-443E-B78F-11F242C3FFA3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8A74A8-970A-4E02-912E-E2024C29455B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{5F17E777-6804-43E9-9C86-08DF6650385B}"/>
   </bookViews>
